--- a/7.20部分商品上新清单1.xlsx
+++ b/7.20部分商品上新清单1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>商品标题</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>usjxzsshs</t>
+  </si>
+  <si>
+    <t>3u2jo5s3s</t>
+  </si>
+  <si>
+    <t>8dpl7g7kb</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1430,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
@@ -1951,6 +1957,14 @@
       </c>
       <c r="B65" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/7.20部分商品上新清单1.xlsx
+++ b/7.20部分商品上新清单1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>商品标题</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>8dpl7g7kb</t>
+  </si>
+  <si>
+    <t>4wg5vrwdw</t>
+  </si>
+  <si>
+    <t>wrb1ug0m4</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1436,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
@@ -1965,6 +1971,14 @@
       </c>
       <c r="B66" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
